--- a/Table2-100loactions.xlsx
+++ b/Table2-100loactions.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C797C9-D338-46AD-A1FC-67D14DA46EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7330C35-CB75-4EAC-8C48-D4C7C62310BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Best Bound</t>
   </si>
@@ -79,6 +90,15 @@
   </si>
   <si>
     <t>unlimited</t>
+  </si>
+  <si>
+    <t>Recovery cost/Total %</t>
+  </si>
+  <si>
+    <t>Retrofitting cost/Total %</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -239,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,6 +270,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -259,22 +297,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -286,28 +330,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -879,9 +926,11 @@
     <col min="10" max="10" width="27.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -889,15 +938,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -906,16 +955,16 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -927,51 +976,63 @@
       <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="M3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="21">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>16318</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>16318</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="18">
-        <v>152.16999999999999</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="F4" s="15">
+        <v>126.59</v>
+      </c>
+      <c r="G4" s="15">
         <v>2</v>
       </c>
-      <c r="H4" s="19">
-        <v>152.01</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="H4" s="16">
+        <v>126.45</v>
+      </c>
+      <c r="I4" s="10">
         <v>36</v>
       </c>
-      <c r="J4" s="9">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="K4" s="8">
-        <v>26</v>
-      </c>
-      <c r="L4" s="9">
-        <v>7.28</v>
+      <c r="J4" s="6">
+        <v>3.49</v>
+      </c>
+      <c r="K4" s="10">
+        <v>14</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>13312</v>
       </c>
       <c r="D5" s="3">
@@ -980,108 +1041,126 @@
       <c r="E5" s="3">
         <v>0.01</v>
       </c>
-      <c r="F5" s="20">
-        <v>332.99</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="F5" s="17">
+        <v>306.77</v>
+      </c>
+      <c r="G5" s="17">
         <v>3</v>
       </c>
-      <c r="H5" s="21">
-        <v>332.64</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="H5" s="18">
+        <v>306.41000000000003</v>
+      </c>
+      <c r="I5" s="11">
         <v>69</v>
       </c>
-      <c r="J5" s="10">
-        <v>24.73</v>
-      </c>
-      <c r="K5" s="3">
-        <v>50</v>
-      </c>
-      <c r="L5" s="10">
-        <v>19.14</v>
+      <c r="J5" s="7">
+        <v>11.23</v>
+      </c>
+      <c r="K5" s="11">
+        <v>29</v>
+      </c>
+      <c r="L5" s="7">
+        <v>5.74</v>
+      </c>
+      <c r="M5" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="N5" s="28">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="23"/>
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>13013</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>13091</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>0.01</v>
       </c>
-      <c r="F6" s="22">
-        <v>332.07</v>
-      </c>
-      <c r="G6" s="22">
+      <c r="F6" s="19">
+        <v>300.22000000000003</v>
+      </c>
+      <c r="G6" s="19">
         <v>3</v>
       </c>
-      <c r="H6" s="23">
-        <v>331.69</v>
-      </c>
-      <c r="I6" s="15">
+      <c r="H6" s="20">
+        <v>299.87</v>
+      </c>
+      <c r="I6" s="12">
         <v>63</v>
       </c>
-      <c r="J6" s="12">
-        <v>20.38</v>
-      </c>
-      <c r="K6" s="11">
-        <v>49</v>
-      </c>
-      <c r="L6" s="12">
-        <v>14.7</v>
+      <c r="J6" s="9">
+        <v>10.6</v>
+      </c>
+      <c r="K6" s="12">
+        <v>33</v>
+      </c>
+      <c r="L6" s="9">
+        <v>5</v>
+      </c>
+      <c r="M6" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="N6" s="32">
+        <v>0.67</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>17293</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>17293</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="15">
         <v>567.88</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="15">
         <v>2</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="16">
         <v>567.66</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="10">
         <v>24</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="6">
         <v>3.1</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="5">
         <v>0</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="6">
         <v>0</v>
       </c>
+      <c r="M7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>14114</v>
       </c>
       <c r="D8" s="3">
@@ -1090,62 +1169,74 @@
       <c r="E8" s="3">
         <v>0.01</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <v>716.36</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="17">
         <v>2</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <v>716.12</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="11">
         <v>33</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="7">
         <v>4.66</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="7">
         <v>0</v>
       </c>
+      <c r="M8" s="27">
+        <v>0.62</v>
+      </c>
+      <c r="N8" s="28">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="23"/>
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>13825</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>13839</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="19">
         <v>985.83</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="19">
         <v>3</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="20">
         <v>985.27</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="12">
         <v>40</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="9">
         <v>5.23</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="8">
         <v>0</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="9">
         <v>0</v>
+      </c>
+      <c r="M9" s="31">
+        <v>0.35</v>
+      </c>
+      <c r="N9" s="32">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>

--- a/Table2-100loactions.xlsx
+++ b/Table2-100loactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7330C35-CB75-4EAC-8C48-D4C7C62310BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D40EDE5-3254-44D5-8B33-35BEEE6C6383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,6 +321,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -328,33 +355,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -376,50 +376,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>177343</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152105</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F44C9F6-D279-4B21-8964-6D78CD90DC75}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="869950" y="2038350"/>
-          <a:ext cx="3657143" cy="2361905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -447,7 +403,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -491,7 +447,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -535,7 +491,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -579,7 +535,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -623,7 +579,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -632,6 +588,50 @@
         <a:xfrm>
           <a:off x="863600" y="4584700"/>
           <a:ext cx="3657143" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>235461</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>178130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC8FC13-DCB8-B6C7-DF26-AA73D7EA4C38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="927100" y="2076450"/>
+          <a:ext cx="3658111" cy="2362530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -976,15 +976,15 @@
       <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
+      <c r="A4" s="30">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1020,7 +1020,7 @@
       <c r="L4" s="6">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="23" t="s">
         <v>20</v>
       </c>
       <c r="N4" s="16" t="s">
@@ -1028,7 +1028,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1062,15 +1062,15 @@
       <c r="L5" s="7">
         <v>5.74</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="24">
         <v>0.6</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="25">
         <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="23"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1104,15 +1104,15 @@
       <c r="L6" s="9">
         <v>5</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="28">
         <v>0.3</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="29">
         <v>0.67</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1148,15 +1148,15 @@
       <c r="L7" s="6">
         <v>0</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="N7" s="27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1190,15 +1190,15 @@
       <c r="L8" s="7">
         <v>0</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="24">
         <v>0.62</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="25">
         <v>0.37</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="23"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1232,10 +1232,10 @@
       <c r="L9" s="9">
         <v>0</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="28">
         <v>0.35</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="29">
         <v>0.62</v>
       </c>
     </row>

--- a/Table2-100loactions.xlsx
+++ b/Table2-100loactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D40EDE5-3254-44D5-8B33-35BEEE6C6383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78F5F3E-989C-4EBC-A5E4-F720857BB8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,226 +378,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1866443</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>164805</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D7E8F6E-2D1E-456D-ADF1-2377D633E926}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4724400" y="2051050"/>
-          <a:ext cx="3657143" cy="2361905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1993900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1694993</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>177505</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B5B2DD-9120-4B33-BA33-809DDFA3585D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="2063750"/>
-          <a:ext cx="3657143" cy="2361905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1720393</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152105</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DF4A1C-EFE1-46B7-9545-AC06F9C1A8C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="4616450"/>
-          <a:ext cx="3657143" cy="2361905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1891843</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114005</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E65D9B-C284-4C6C-818C-4A6BB0936390}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4749800" y="4578350"/>
-          <a:ext cx="3657143" cy="2361905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>170993</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>120355</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033C05C1-03C7-4C3D-9061-53FCE0339392}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="863600" y="4584700"/>
-          <a:ext cx="3657143" cy="2361905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -623,7 +403,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -632,6 +412,226 @@
         <a:xfrm>
           <a:off x="927100" y="2076450"/>
           <a:ext cx="3658111" cy="2362530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1804437</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC0E819-BA16-B8E4-8A78-EB001D628BA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4661647" y="2121647"/>
+          <a:ext cx="3657143" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1964532</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1666154</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>13729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0BBC67-60AD-CD62-4F03-1729FEF4B66C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8486511" y="2123282"/>
+          <a:ext cx="3657143" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>72760</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>138906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250632</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>93102</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78691E01-F2C3-02BD-EA14-E0312265EF9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="945885" y="4610364"/>
+          <a:ext cx="3657143" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>456406</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1943966</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>119561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3236DC89-61C3-088B-8392-806379D67B59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4808802" y="4636823"/>
+          <a:ext cx="3657143" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>267</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>178858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1719337</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360880A1-7910-7DB2-599A-34BC7149895D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8539694" y="4650316"/>
+          <a:ext cx="3657143" cy="2361905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Table2-100loactions.xlsx
+++ b/Table2-100loactions.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78F5F3E-989C-4EBC-A5E4-F720857BB8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8D8C35-6C85-4EAF-A9BF-51D1EEC30EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Latex" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Best Bound</t>
   </si>
@@ -99,6 +100,33 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Population Dislocation</t>
+  </si>
+  <si>
+    <t>CCG Run time (sec.)</t>
+  </si>
+  <si>
+    <t>Subproblem Run time (sec.)</t>
+  </si>
+  <si>
+    <t>Subproblem Callbacks Run Time (sec.)</t>
+  </si>
+  <si>
+    <t>Uncertainty Set Check Run Time (sec.)</t>
+  </si>
+  <si>
+    <t>Retrofitting cost/budget</t>
+  </si>
+  <si>
+    <t>Budget \$</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Recovery cost/budget</t>
   </si>
 </sst>
 </file>
@@ -259,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,6 +383,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -908,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A12" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1248,4 +1282,248 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1263AB0E-6378-4269-94F2-4659E41B6DBD}">
+  <dimension ref="B4:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="33">
+        <v>5</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="34">
+        <v>16318</v>
+      </c>
+      <c r="E5" s="34">
+        <v>126.59</v>
+      </c>
+      <c r="F5" s="34">
+        <v>2</v>
+      </c>
+      <c r="G5" s="34">
+        <v>126.45</v>
+      </c>
+      <c r="H5" s="34">
+        <v>3.49</v>
+      </c>
+      <c r="I5" s="34">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="34">
+        <v>13408</v>
+      </c>
+      <c r="E6" s="34">
+        <v>306.77</v>
+      </c>
+      <c r="F6" s="34">
+        <v>3</v>
+      </c>
+      <c r="G6" s="34">
+        <v>306.41000000000003</v>
+      </c>
+      <c r="H6" s="34">
+        <v>11.23</v>
+      </c>
+      <c r="I6" s="34">
+        <v>5.74</v>
+      </c>
+      <c r="J6" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="34">
+        <v>13091</v>
+      </c>
+      <c r="E7" s="34">
+        <v>300.22000000000003</v>
+      </c>
+      <c r="F7" s="34">
+        <v>3</v>
+      </c>
+      <c r="G7" s="34">
+        <v>299.87</v>
+      </c>
+      <c r="H7" s="34">
+        <v>10.6</v>
+      </c>
+      <c r="I7" s="34">
+        <v>5</v>
+      </c>
+      <c r="J7" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="K7" s="34">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="34">
+        <v>17293</v>
+      </c>
+      <c r="E8" s="34">
+        <v>567.88</v>
+      </c>
+      <c r="F8" s="34">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34">
+        <v>567.66</v>
+      </c>
+      <c r="H8" s="34">
+        <v>3.1</v>
+      </c>
+      <c r="I8" s="34">
+        <v>0</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="34">
+        <v>14236</v>
+      </c>
+      <c r="E9" s="34">
+        <v>716.36</v>
+      </c>
+      <c r="F9" s="34">
+        <v>2</v>
+      </c>
+      <c r="G9" s="34">
+        <v>716.12</v>
+      </c>
+      <c r="H9" s="34">
+        <v>4.66</v>
+      </c>
+      <c r="I9" s="34">
+        <v>0</v>
+      </c>
+      <c r="J9" s="34">
+        <v>0.62</v>
+      </c>
+      <c r="K9" s="34">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="34">
+        <v>13839</v>
+      </c>
+      <c r="E10" s="34">
+        <v>985.83</v>
+      </c>
+      <c r="F10" s="34">
+        <v>3</v>
+      </c>
+      <c r="G10" s="34">
+        <v>985.27</v>
+      </c>
+      <c r="H10" s="34">
+        <v>5.23</v>
+      </c>
+      <c r="I10" s="34">
+        <v>0</v>
+      </c>
+      <c r="J10" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="K10" s="34">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Table2-100loactions.xlsx
+++ b/Table2-100loactions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78F5F3E-989C-4EBC-A5E4-F720857BB8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A93F598-7FCD-4CCC-8C77-E9C38CDB1D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>Best Bound</t>
   </si>
@@ -99,13 +99,16 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Enhanced Results by generating triple cuts only for the top %20 areas with the most population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,13 +124,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -259,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -309,7 +326,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -321,12 +338,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,16 +347,40 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -380,13 +415,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>235461</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>76711</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>178130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -424,13 +459,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>37353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1804437</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>158081</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -468,13 +503,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1964532</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>59532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1666154</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>13729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -512,13 +547,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>72760</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>138906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>250632</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:colOff>91882</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>93102</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -556,13 +591,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>456406</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>165365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1943966</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>119561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -600,13 +635,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>267</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>178858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1719337</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>133054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -906,18 +941,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.453125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
@@ -947,10 +981,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -976,15 +1010,15 @@
       <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="30">
+      <c r="A4" s="36">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1020,7 +1054,7 @@
       <c r="L4" s="6">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="21" t="s">
         <v>20</v>
       </c>
       <c r="N4" s="16" t="s">
@@ -1028,7 +1062,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1062,15 +1096,15 @@
       <c r="L5" s="7">
         <v>5.74</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="22">
         <v>0.6</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="23">
         <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="32"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1104,15 +1138,15 @@
       <c r="L6" s="9">
         <v>5</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="25">
         <v>0.3</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="26">
         <v>0.67</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1148,15 +1182,15 @@
       <c r="L7" s="6">
         <v>0</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1190,15 +1224,15 @@
       <c r="L8" s="7">
         <v>0</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="22">
         <v>0.62</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="23">
         <v>0.37</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="32"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1232,17 +1266,324 @@
       <c r="L9" s="9">
         <v>0</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="25">
         <v>0.35</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="26">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10">
+        <v>16318</v>
+      </c>
+      <c r="D14" s="5">
+        <v>16318</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27">
+        <v>93.97</v>
+      </c>
+      <c r="G14" s="27">
+        <v>2</v>
+      </c>
+      <c r="H14" s="28">
+        <v>93.65</v>
+      </c>
+      <c r="I14" s="33">
+        <v>50</v>
+      </c>
+      <c r="J14" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="K14" s="10">
+        <v>14</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1.93</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="37"/>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="11">
+        <v>13302</v>
+      </c>
+      <c r="D15" s="3">
+        <v>13435</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="29">
+        <v>130.79</v>
+      </c>
+      <c r="G15" s="29">
+        <v>2</v>
+      </c>
+      <c r="H15" s="30">
+        <v>130.51</v>
+      </c>
+      <c r="I15" s="34">
+        <v>51</v>
+      </c>
+      <c r="J15" s="7">
+        <v>9.19</v>
+      </c>
+      <c r="K15" s="11">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7">
+        <v>2.92</v>
+      </c>
+      <c r="M15" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="N15" s="23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="38"/>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12">
+        <v>13013</v>
+      </c>
+      <c r="D16" s="8">
+        <v>13091</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="19">
+        <v>275.82</v>
+      </c>
+      <c r="G16" s="19">
+        <v>3</v>
+      </c>
+      <c r="H16" s="20">
+        <v>274.93</v>
+      </c>
+      <c r="I16" s="35">
+        <v>85</v>
+      </c>
+      <c r="J16" s="9">
+        <v>22.21</v>
+      </c>
+      <c r="K16" s="12">
+        <v>17</v>
+      </c>
+      <c r="L16" s="9">
+        <v>9.17</v>
+      </c>
+      <c r="M16" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="N16" s="26">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10">
+        <v>17293</v>
+      </c>
+      <c r="D17" s="5">
+        <v>17293</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="27">
+        <v>70.75</v>
+      </c>
+      <c r="G17" s="27">
+        <v>2</v>
+      </c>
+      <c r="H17" s="28">
+        <v>70.39</v>
+      </c>
+      <c r="I17" s="33">
+        <v>39</v>
+      </c>
+      <c r="J17" s="6">
+        <v>5.99</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="37"/>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11">
+        <v>14139</v>
+      </c>
+      <c r="D18" s="3">
+        <v>14201</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="29">
+        <v>157.82</v>
+      </c>
+      <c r="G18" s="29">
+        <v>3</v>
+      </c>
+      <c r="H18" s="30">
+        <v>157.16999999999999</v>
+      </c>
+      <c r="I18" s="34">
+        <v>39</v>
+      </c>
+      <c r="J18" s="7">
+        <v>8.92</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="22">
+        <v>0.62</v>
+      </c>
+      <c r="N18" s="23">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="38"/>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="12">
+        <v>13825</v>
+      </c>
+      <c r="D19" s="8">
+        <v>13851</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="31">
+        <v>145.58000000000001</v>
+      </c>
+      <c r="G19" s="31">
+        <v>3</v>
+      </c>
+      <c r="H19" s="32">
+        <v>144.83000000000001</v>
+      </c>
+      <c r="I19" s="35">
+        <v>73</v>
+      </c>
+      <c r="J19" s="9">
+        <v>10.6</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="N19" s="26">
         <v>0.62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Table2-100loactions.xlsx
+++ b/Table2-100loactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A93F598-7FCD-4CCC-8C77-E9C38CDB1D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F26EBA-FEF0-4D12-8CA0-3E2958A8A97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,7 +944,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -980,11 +980,11 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -1285,11 +1285,11 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>2</v>
